--- a/FBG_Needle_Calibration_Data/needle_1/Calibration/90 deg/12-28-19_15-30/curvature_data.xlsx
+++ b/FBG_Needle_Calibration_Data/needle_1/Calibration/90 deg/12-28-19_15-30/curvature_data.xlsx
@@ -379,240 +379,240 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>55841.579133</v>
+        <v>55829.979133</v>
       </c>
       <c r="B2">
-        <v>-2.5727036541e-05</v>
+        <v>-1.9716953765e-05</v>
       </c>
       <c r="C2">
-        <v>-6.4497298751e-05</v>
+        <v>-2.3008119142e-05</v>
       </c>
       <c r="D2">
-        <v>-0.00015523270297</v>
+        <v>-3.2750095618e-05</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>56006.443141</v>
+        <v>55841.579133</v>
       </c>
       <c r="B3">
-        <v>7.1479897196e-06</v>
+        <v>-2.5727036541e-05</v>
       </c>
       <c r="C3">
-        <v>-6.0234773607e-05</v>
+        <v>-6.4497298751e-05</v>
       </c>
       <c r="D3">
-        <v>-0.00015127462172</v>
+        <v>-0.00015523270297</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>55997.975141</v>
+        <v>55853.779134</v>
       </c>
       <c r="B4">
-        <v>5.6533608358e-05</v>
+        <v>5.1999389427e-05</v>
       </c>
       <c r="C4">
-        <v>-0.00012256061875</v>
+        <v>-0.00012615872089</v>
       </c>
       <c r="D4">
-        <v>-0.00023468488048</v>
+        <v>-0.00023605355767</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>55930.779138</v>
+        <v>55866.511135</v>
       </c>
       <c r="B5">
-        <v>-2.9321334928e-05</v>
+        <v>7.6206569896e-05</v>
       </c>
       <c r="C5">
-        <v>-0.00054357520651</v>
+        <v>-0.00020601878536</v>
       </c>
       <c r="D5">
-        <v>-0.00075535899535</v>
+        <v>-0.00031566064791</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>55903.711136</v>
+        <v>55879.511135</v>
       </c>
       <c r="B6">
-        <v>3.2427290384e-05</v>
+        <v>6.651417877400001e-05</v>
       </c>
       <c r="C6">
-        <v>-0.00039999220881</v>
+        <v>-0.00027670591051</v>
       </c>
       <c r="D6">
-        <v>-0.0005914619724600001</v>
+        <v>-0.00040074936995</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>55951.511139</v>
+        <v>55891.111136</v>
       </c>
       <c r="B7">
-        <v>2.0524494893e-05</v>
+        <v>4.9674302527e-05</v>
       </c>
       <c r="C7">
-        <v>-0.00039890436192</v>
+        <v>-0.00033666448016</v>
       </c>
       <c r="D7">
-        <v>-0.00059144210716</v>
+        <v>-0.00049983223966</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>55829.979133</v>
+        <v>55903.711136</v>
       </c>
       <c r="B8">
-        <v>-1.9716953765e-05</v>
+        <v>3.2427290384e-05</v>
       </c>
       <c r="C8">
-        <v>-2.3008119142e-05</v>
+        <v>-0.00039999220881</v>
       </c>
       <c r="D8">
-        <v>-3.2750095618e-05</v>
+        <v>-0.0005914619724600001</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
-        <v>55879.511135</v>
+        <v>55914.911137</v>
       </c>
       <c r="B9">
-        <v>6.651417877400001e-05</v>
+        <v>-2.0744463181e-05</v>
       </c>
       <c r="C9">
-        <v>-0.00027670591051</v>
+        <v>-0.00047462387559</v>
       </c>
       <c r="D9">
-        <v>-0.00040074936995</v>
+        <v>-0.00067525583455</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
-        <v>55866.511135</v>
+        <v>55930.779138</v>
       </c>
       <c r="B10">
-        <v>7.6206569896e-05</v>
+        <v>-2.9321334928e-05</v>
       </c>
       <c r="C10">
-        <v>-0.00020601878536</v>
+        <v>-0.00054357520651</v>
       </c>
       <c r="D10">
-        <v>-0.00031566064791</v>
+        <v>-0.00075535899535</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
-        <v>55977.31114</v>
+        <v>55941.643138</v>
       </c>
       <c r="B11">
-        <v>3.5106852661e-05</v>
+        <v>-3.0418913624e-05</v>
       </c>
       <c r="C11">
-        <v>-0.00027404619379</v>
+        <v>-0.00046896276921</v>
       </c>
       <c r="D11">
-        <v>-0.00040487284056</v>
+        <v>-0.00067954269574</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
-        <v>55963.175139</v>
+        <v>55951.511139</v>
       </c>
       <c r="B12">
-        <v>4.9625519263e-05</v>
+        <v>2.0524494893e-05</v>
       </c>
       <c r="C12">
-        <v>-0.00033466254784</v>
+        <v>-0.00039890436192</v>
       </c>
       <c r="D12">
-        <v>-0.00049754904037</v>
+        <v>-0.00059144210716</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13">
-        <v>56015.575142</v>
+        <v>55963.175139</v>
       </c>
       <c r="B13">
-        <v>-2.5204481073e-05</v>
+        <v>4.9625519263e-05</v>
       </c>
       <c r="C13">
-        <v>-2.7600694734e-05</v>
+        <v>-0.00033466254784</v>
       </c>
       <c r="D13">
-        <v>-3.4688415299e-05</v>
+        <v>-0.00049754904037</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14">
-        <v>55987.91114</v>
+        <v>55977.31114</v>
       </c>
       <c r="B14">
-        <v>8.129100270599999e-05</v>
+        <v>3.5106852661e-05</v>
       </c>
       <c r="C14">
-        <v>-0.00020283240674</v>
+        <v>-0.00027404619379</v>
       </c>
       <c r="D14">
-        <v>-0.00031438276038</v>
+        <v>-0.00040487284056</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15">
-        <v>55853.779134</v>
+        <v>55987.91114</v>
       </c>
       <c r="B15">
-        <v>5.1999389427e-05</v>
+        <v>8.129100270599999e-05</v>
       </c>
       <c r="C15">
-        <v>-0.00012615872089</v>
+        <v>-0.00020283240674</v>
       </c>
       <c r="D15">
-        <v>-0.00023605355767</v>
+        <v>-0.00031438276038</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16">
-        <v>55941.643138</v>
+        <v>55997.975141</v>
       </c>
       <c r="B16">
-        <v>-3.0418913624e-05</v>
+        <v>5.6533608358e-05</v>
       </c>
       <c r="C16">
-        <v>-0.00046896276921</v>
+        <v>-0.00012256061875</v>
       </c>
       <c r="D16">
-        <v>-0.00067954269574</v>
+        <v>-0.00023468488048</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17">
-        <v>55891.111136</v>
+        <v>56006.443141</v>
       </c>
       <c r="B17">
-        <v>4.9674302527e-05</v>
+        <v>7.1479897196e-06</v>
       </c>
       <c r="C17">
-        <v>-0.00033666448016</v>
+        <v>-6.0234773607e-05</v>
       </c>
       <c r="D17">
-        <v>-0.00049983223966</v>
+        <v>-0.00015127462172</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18">
-        <v>55914.911137</v>
+        <v>56015.575142</v>
       </c>
       <c r="B18">
-        <v>-2.0744463181e-05</v>
+        <v>-2.5204481073e-05</v>
       </c>
       <c r="C18">
-        <v>-0.00047462387559</v>
+        <v>-2.7600694734e-05</v>
       </c>
       <c r="D18">
-        <v>-0.00067525583455</v>
+        <v>-3.4688415299e-05</v>
       </c>
     </row>
   </sheetData>
